--- a/gwy/XC_资料分析测试_第八期20130403.xlsx
+++ b/gwy/XC_资料分析测试_第八期20130403.xlsx
@@ -103,13 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">根据所给文字资料，回答6—10题
-　　2009年度全国旅行社营业收入为1806.53亿元，同比增长8.64%；毛利润总额为134.36亿元，毛利率为7.44%；净利润总额为11.48亿元，净利润为0.64%。
-2009年度全国旅行社的旅游业务营业收入为1745.59亿元，同比增长8.87%；旅游业务毛利润为120.27亿元，旅游业务毛利率为6.89%；实缴税金为12.69亿元，同比增长12.37%；外汇结汇10.51亿美元，同比减少11.24%；全国促销费支出为6.76亿元，同比增长13.87%。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">　2009年度全国旅行社营业收入为1806.53亿元，同比增长8.64%；毛利润总额为134.36亿元，毛利率为7.44%；净利润总额为11.48亿元，净利润为0.64%。
 2009年度全国旅行社的旅游业务营业收入为1745.59亿元，同比增长8.87%；旅游业务毛利润为120.27亿元，旅游业务毛利率为6.89%；实缴税金为12.69亿元，同比增长12.37%；外汇结汇10.51亿美元，同比减少11.24%；全国促销费支出为6.76亿元，同比增长13.87%。
 </t>
@@ -304,6 +297,11 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根据所给文字资料，回答6—10题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,7 +680,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
@@ -716,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1">
@@ -724,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2"/>
       <c r="E2" s="1"/>
@@ -743,22 +741,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1">
@@ -769,19 +767,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>14</v>
@@ -795,19 +793,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
@@ -821,22 +819,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1">
@@ -847,167 +845,167 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
